--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3211259.0430055</v>
+        <v>3204907.300464367</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223169</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7128380.403045888</v>
+        <v>7127790.423655469</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>178.263978969207</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -719,13 +719,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>206.3670033956604</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,10 +750,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>74.86702424530766</v>
       </c>
       <c r="H3" t="n">
-        <v>21.24059023833921</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159213</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>198.6892618072693</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.8470872577949</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>324.4314776462144</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>21.24059023833921</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.54550680794773</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.017543089518</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>194.3687723618401</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>353.8360006294084</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.0758460238451</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>38.65591760717422</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
         <v>42.96247126414336</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
@@ -1534,7 +1534,7 @@
         <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507272</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
         <v>61.76140096484032</v>
@@ -1610,16 +1610,16 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173255</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>67.21752135244292</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -2096,7 +2096,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.482250613589</v>
       </c>
       <c r="I20" t="n">
         <v>6.593776422875436</v>
@@ -2144,7 +2144,7 @@
         <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006885</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
         <v>90.90562710059311</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219488</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497642</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
         <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.556883668935</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.8123861026103</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453484</v>
+        <v>20.92391191189587</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443494</v>
+        <v>48.81858568179599</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548315</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046329</v>
+        <v>67.32610467782432</v>
       </c>
       <c r="C34" t="n">
-        <v>58.9166954007457</v>
+        <v>52.47323292810673</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258542</v>
+        <v>38.04694813994645</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546453</v>
+        <v>37.97339019282556</v>
       </c>
       <c r="F34" t="n">
-        <v>46.1663040852318</v>
+        <v>39.72284161259283</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762394</v>
+        <v>50.54167953498497</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419598</v>
+        <v>37.89393170155701</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536791</v>
+        <v>15.73364728272894</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982383</v>
+        <v>6.632145647184856</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535114</v>
+        <v>84.75808915271217</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.3320274868843</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865931</v>
+        <v>166.5545700139541</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.2897179008201</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682828</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175981</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,13 +3563,13 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730192</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>283.8041188054333</v>
+        <v>1.098310803921109</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812816</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995156</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415649</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443889</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627862</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915773</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.285835968925</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131713</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788918</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906111</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351703</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252672</v>
+        <v>41.58521707215</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589425</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822804</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812816</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995156</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>55.20216454274208</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415649</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443889</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627862</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915773</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F46" t="n">
-        <v>59.285835968925</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131713</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788918</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906111</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351703</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759.1876438789457</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>759.1876438789457</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>373.7465150956134</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>373.7465150956134</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>360.8924806659952</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>364.5813763321317</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703879</v>
+        <v>46.56170315639696</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645006</v>
+        <v>405.5440591838588</v>
       </c>
       <c r="L2" t="n">
-        <v>894.7933862830295</v>
+        <v>898.8643509023876</v>
       </c>
       <c r="M2" t="n">
-        <v>894.7933862830295</v>
+        <v>898.8643509023876</v>
       </c>
       <c r="N2" t="n">
-        <v>1420.616275678884</v>
+        <v>1400.031133897839</v>
       </c>
       <c r="O2" t="n">
-        <v>1860.655876571213</v>
+        <v>1840.070734790167</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790167</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216638</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.53692685194</v>
+        <v>1820.409826157688</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.53692685194</v>
+        <v>1596.909223717105</v>
       </c>
       <c r="U2" t="n">
-        <v>1868.784197286539</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="V2" t="n">
-        <v>1526.677387990057</v>
+        <v>999.0496848552219</v>
       </c>
       <c r="W2" t="n">
-        <v>1155.678352958344</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1155.678352958344</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>759.1876438789457</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163348</v>
+        <v>657.7430775364724</v>
       </c>
       <c r="C3" t="n">
-        <v>454.913144576427</v>
+        <v>507.0888470965646</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979074</v>
+        <v>376.9998797180449</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087951</v>
+        <v>240.5533888289326</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019192689</v>
+        <v>116.1215827120644</v>
       </c>
       <c r="G3" t="n">
-        <v>63.94588019192689</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>360.2374719608488</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>360.2374719608488</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>861.4042549563</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896707</v>
+        <v>883.7630516643766</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580652</v>
+        <v>1384.929834659828</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376225</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927958</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606599</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.10224989849</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031777</v>
+        <v>1026.364372110953</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817889</v>
+        <v>837.0572944609651</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572962</v>
+        <v>657.7430775364724</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.1612148138276</v>
+        <v>241.0817140065312</v>
       </c>
       <c r="C4" t="n">
-        <v>509.1612148138276</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="D4" t="n">
-        <v>353.5281017163423</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="E4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="F4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="G4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252037</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409859</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="W4" t="n">
-        <v>743.2415370308445</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="X4" t="n">
-        <v>509.1612148138276</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="Y4" t="n">
-        <v>509.1612148138276</v>
+        <v>296.8865154828869</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1010.885049426593</v>
+        <v>551.2091433733635</v>
       </c>
       <c r="C5" t="n">
-        <v>1010.885049426593</v>
+        <v>551.2091433733635</v>
       </c>
       <c r="D5" t="n">
-        <v>1010.885049426593</v>
+        <v>551.2091433733635</v>
       </c>
       <c r="E5" t="n">
-        <v>1010.885049426593</v>
+        <v>551.2091433733635</v>
       </c>
       <c r="F5" t="n">
-        <v>593.9906109565709</v>
+        <v>538.3551089437453</v>
       </c>
       <c r="G5" t="n">
-        <v>180.827855444574</v>
+        <v>125.1923534317485</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703879</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>401.4730945645006</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>401.4730945645006</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>927.2959839603557</v>
+        <v>1051.843641766317</v>
       </c>
       <c r="N5" t="n">
-        <v>1453.118873356211</v>
+        <v>1051.843641766317</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.349434720418</v>
+        <v>1491.883242658645</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.53692685194</v>
+        <v>1840.070734790167</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216638</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.53692685194</v>
+        <v>1820.409826157688</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.53692685194</v>
+        <v>1596.909223717105</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.53692685194</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="V5" t="n">
-        <v>1796.828363572935</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="W5" t="n">
-        <v>1796.828363572935</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="X5" t="n">
-        <v>1407.375758505992</v>
+        <v>951.7038890847604</v>
       </c>
       <c r="Y5" t="n">
-        <v>1010.885049426593</v>
+        <v>951.7038890847604</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163348</v>
+        <v>736.0639889622241</v>
       </c>
       <c r="C6" t="n">
-        <v>454.913144576427</v>
+        <v>585.4097585223163</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8241771979074</v>
+        <v>455.3207911437967</v>
       </c>
       <c r="E6" t="n">
-        <v>188.3776863087951</v>
+        <v>318.8743002546844</v>
       </c>
       <c r="F6" t="n">
-        <v>63.94588019192689</v>
+        <v>194.4424941378162</v>
       </c>
       <c r="G6" t="n">
-        <v>42.49073853703879</v>
+        <v>74.38267620968064</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703879</v>
+        <v>74.38267620968064</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703879</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992652</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="L6" t="n">
-        <v>845.7959704975785</v>
+        <v>521.4159459447621</v>
       </c>
       <c r="M6" t="n">
-        <v>1371.618859893434</v>
+        <v>1022.582728940213</v>
       </c>
       <c r="N6" t="n">
-        <v>1890.171835297049</v>
+        <v>1523.749511935664</v>
       </c>
       <c r="O6" t="n">
-        <v>1890.171835297049</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297049</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927958</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606599</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.10224989849</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031777</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817889</v>
+        <v>1067.174540327678</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572962</v>
+        <v>887.8603234031855</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.1949434979639</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="C7" t="n">
-        <v>230.1949434979639</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="D7" t="n">
-        <v>230.1949434979639</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="E7" t="n">
-        <v>230.1949434979639</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="F7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="G7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="H7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="V7" t="n">
-        <v>747.6056677838033</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="W7" t="n">
-        <v>464.2752657149808</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="X7" t="n">
-        <v>230.1949434979639</v>
+        <v>225.7063445899236</v>
       </c>
       <c r="Y7" t="n">
-        <v>230.1949434979639</v>
+        <v>225.7063445899236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2161.142036303753</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.731934657886</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.142036303753</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1436.116207068686</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.636489659666</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2358.257858376064</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1681.115887455785</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1382.881067245904</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D11" t="n">
-        <v>1092.38061974976</v>
+        <v>731.4357765463901</v>
       </c>
       <c r="E11" t="n">
-        <v>784.7377761534929</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>462.784018970659</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
-        <v>144.5619447458507</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244626</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2858.790257196483</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2582.731903451959</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2288.219979672204</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1986.669951879994</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979807</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
         <v>234.1241141445331</v>
@@ -5197,7 +5197,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5206,7 +5206,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5215,7 +5215,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5230,19 +5230,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1391.743918024178</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1093.509097814297</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>803.0086503181526</v>
+        <v>745.691394732105</v>
       </c>
       <c r="E14" t="n">
-        <v>495.3658067218855</v>
+        <v>745.691394732105</v>
       </c>
       <c r="F14" t="n">
-        <v>173.4120495390516</v>
+        <v>423.737637549271</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2816.584415774169</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2569.418287764875</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2293.359934020351</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>1998.848010240597</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.297982448386</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5364,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5413,7 +5413,7 @@
         <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
         <v>357.1274984979809</v>
@@ -5422,7 +5422,7 @@
         <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5671,25 +5671,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485496</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803421</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,10 +5792,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5899,16 +5899,16 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
@@ -5929,7 +5929,7 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5953,7 +5953,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="23">
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6145,16 +6145,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
         <v>812.1990332879427</v>
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563785</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662614</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
         <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6297,25 +6297,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295043</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278177</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278177</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060916</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985361</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517136</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225747</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904121</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351195</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648018</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573178</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.29817721028</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428646</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988174</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026491</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,73 +6437,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142177</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563785</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838406</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.28679488479</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658944</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6534,25 +6534,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295043</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278177</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060916</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060916</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746019</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904121</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351195</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648018</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781098</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144927</v>
+        <v>890.2201666674346</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423749</v>
+        <v>590.5275805474769</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855446</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267659</v>
+        <v>87.68547930209954</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918737</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193358</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037865</v>
+        <v>1165.756364896309</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082446</v>
+        <v>1711.757264940889</v>
       </c>
       <c r="N32" t="n">
-        <v>2139.307231719908</v>
+        <v>2239.568548578352</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690204</v>
+        <v>2794.477684958978</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462111</v>
+        <v>3142.6651770905</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243446</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491227</v>
+        <v>3278.199034522563</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448548</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281051</v>
+        <v>3033.349407216708</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270291</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846599</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.2619674447521</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662325</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.294703060252</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304544</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452721</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>871.8478593435855</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>871.8478593435855</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590205</v>
+        <v>341.68725655548</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229138</v>
+        <v>288.6839909715338</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233325</v>
+        <v>250.2527302241131</v>
       </c>
       <c r="E34" t="n">
-        <v>239.922374880439</v>
+        <v>211.8957704333802</v>
       </c>
       <c r="F34" t="n">
-        <v>193.289744491316</v>
+        <v>171.7716879964178</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886655</v>
+        <v>120.7194864459279</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806354</v>
+        <v>82.44278775748647</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259937</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="K34" t="n">
-        <v>337.5849411763213</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>610.2030886905068</v>
+        <v>427.3824312166689</v>
       </c>
       <c r="M34" t="n">
-        <v>904.9851746691565</v>
+        <v>728.5435450432312</v>
       </c>
       <c r="N34" t="n">
-        <v>1146.581702203958</v>
+        <v>911.7331790744404</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245666</v>
+        <v>1189.307481604447</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022245</v>
+        <v>1323.033455149259</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392296</v>
+        <v>1326.45565151931</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422777</v>
+        <v>1319.756514501952</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.25436700323</v>
+        <v>1234.142283034566</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209173</v>
+        <v>947.38814414483</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279017</v>
+        <v>798.6106513157188</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569833</v>
+        <v>632.482101596961</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378704</v>
+        <v>515.6036317300087</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524178</v>
+        <v>409.6934228967166</v>
       </c>
     </row>
     <row r="35">
@@ -6929,22 +6929,22 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129425</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404044</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
         <v>2132.883732040977</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.8582737663421</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646556</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,49 +7096,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184694</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879429</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,25 +7199,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390484</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128482</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>939.5504151240295</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1059.426580900608</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1584.841167182323</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1289.106917675386</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1002.436090599191</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>697.2938177058684</v>
+        <v>738.1896826232702</v>
       </c>
       <c r="F41" t="n">
-        <v>377.8406312259792</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,19 +7442,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2752.513254111242</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V41" t="n">
-        <v>2752.513254111242</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2478.955471069662</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X41" t="n">
-        <v>2186.944117992852</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1887.894660903586</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344869</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906092</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.624644983257</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325927</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356988</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252774</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690453</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822075</v>
+        <v>68.23195016743975</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529131</v>
+        <v>245.5691623529112</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022423</v>
+        <v>505.1989733022405</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160358</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822774</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940012</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.26980279212</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237701</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860411</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234452</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557624</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288786</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356551</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1557.973630753168</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C44" t="n">
-        <v>1557.973630753168</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.973753959969</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666469</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867578</v>
+        <v>377.8406312259792</v>
       </c>
       <c r="G44" t="n">
-        <v>329.656791064894</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215178</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,10 +7667,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
         <v>3036.88408213696</v>
@@ -7682,16 +7682,16 @@
         <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804893</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2452.087934640508</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2160.076581563698</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y44" t="n">
-        <v>1861.027124474432</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344869</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906092</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D46" t="n">
-        <v>344.624644983257</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325927</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356988</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252774</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690453</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.23195016744177</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529131</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022423</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160358</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822774</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940012</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.26980279212</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237701</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860411</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234452</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557624</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288786</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356551</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>123.8044614350478</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7988,13 +7988,13 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507691</v>
+        <v>655.3475650705631</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>230.1352756649438</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820908</v>
       </c>
       <c r="N3" t="n">
-        <v>94.58345757372706</v>
+        <v>107.956755993638</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216679</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107123</v>
+        <v>164.2633295905311</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507691</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>476.0593539535986</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>138.6093284369041</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622968</v>
+        <v>598.6161957820908</v>
       </c>
       <c r="N6" t="n">
-        <v>609.162997100243</v>
+        <v>591.6011865869456</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>598.9166326216679</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.45345285401153</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,7 +8775,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>115.0989755892052</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,25 +9240,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,16 +9954,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931167</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118417</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.2745745069869</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.3721128541664</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931167</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095466</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046916</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
-        <v>85.3721128541664</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11139,25 +11139,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,10 +11376,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11388,13 +11388,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>188.1950278476835</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954312</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.268496584496461e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385697</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>247.8223321301175</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>226.8509454548578</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.315759219833808</v>
+        <v>284.0215672213459</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589425</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822804</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.218901733285</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118669</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.534660953117</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>215.6200406684216</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>623847.4046356888</v>
+        <v>623546.6308288086</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>623847.4046356888</v>
+        <v>623546.6308288086</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>589123.1101151668</v>
+        <v>589123.1101151666</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>591635.5610295212</v>
+        <v>591635.5610295213</v>
       </c>
     </row>
   </sheetData>
@@ -26323,37 +26323,37 @@
         <v>610114.0416596584</v>
       </c>
       <c r="F2" t="n">
-        <v>610114.0416596582</v>
+        <v>610114.041659658</v>
       </c>
       <c r="G2" t="n">
         <v>649195.8411360857</v>
       </c>
       <c r="H2" t="n">
+        <v>649195.8411360856</v>
+      </c>
+      <c r="I2" t="n">
         <v>649195.8411360859</v>
-      </c>
-      <c r="I2" t="n">
-        <v>649195.8411360857</v>
       </c>
       <c r="J2" t="n">
         <v>649195.841136085</v>
       </c>
       <c r="K2" t="n">
-        <v>649195.8411360849</v>
+        <v>649195.8411360852</v>
       </c>
       <c r="L2" t="n">
-        <v>649195.8411360852</v>
+        <v>649195.8411360859</v>
       </c>
       <c r="M2" t="n">
-        <v>649195.8411360858</v>
+        <v>649195.8411360856</v>
       </c>
       <c r="N2" t="n">
-        <v>649195.8411360859</v>
+        <v>649195.8411360856</v>
       </c>
       <c r="O2" t="n">
-        <v>612774.2838042678</v>
+        <v>612774.2838042683</v>
       </c>
       <c r="P2" t="n">
-        <v>612774.2838042679</v>
+        <v>612774.2838042685</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765501</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602661</v>
+        <v>26460.41160941801</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469669</v>
+        <v>215329.5897923935</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670117</v>
+        <v>46725.80335481233</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436854</v>
+        <v>43782.97194555662</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015675</v>
+        <v>18983.55983015684</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181309.5476066574</v>
+        <v>187720.9480760003</v>
       </c>
       <c r="C4" t="n">
-        <v>181309.5476066575</v>
+        <v>187720.9480760003</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26439,25 +26439,25 @@
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718594</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135175.3428171983</v>
+        <v>135041.9482081437</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>111818.0002629858</v>
+        <v>111818.0002629859</v>
       </c>
       <c r="P4" t="n">
-        <v>111818.0002629858</v>
+        <v>111818.0002629859</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295296</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295296</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,31 +26485,31 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588341</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223970.4351069267</v>
+        <v>227419.5595005809</v>
       </c>
       <c r="C6" t="n">
-        <v>401965.7322412776</v>
+        <v>397068.5653771312</v>
       </c>
       <c r="D6" t="n">
-        <v>395094.2111556028</v>
+        <v>387357.9219322115</v>
       </c>
       <c r="E6" t="n">
-        <v>314405.4366490427</v>
+        <v>314296.8760949415</v>
       </c>
       <c r="F6" t="n">
-        <v>444858.3677867546</v>
+        <v>444749.8072326532</v>
       </c>
       <c r="G6" t="n">
         <v>427183.4109400753</v>
       </c>
       <c r="H6" t="n">
+        <v>456278.3668130895</v>
+      </c>
+      <c r="I6" t="n">
         <v>456278.3668130898</v>
       </c>
-      <c r="I6" t="n">
-        <v>456278.3668130896</v>
-      </c>
       <c r="J6" t="n">
-        <v>228192.7234633391</v>
+        <v>234709.0086179124</v>
       </c>
       <c r="K6" t="n">
-        <v>450038.598410306</v>
+        <v>450038.5984103061</v>
       </c>
       <c r="L6" t="n">
-        <v>411144.2514777181</v>
+        <v>407095.4142672465</v>
       </c>
       <c r="M6" t="n">
-        <v>413547.0898787212</v>
+        <v>412495.3948675329</v>
       </c>
       <c r="N6" t="n">
-        <v>456278.3668130901</v>
+        <v>456278.3668130895</v>
       </c>
       <c r="O6" t="n">
-        <v>426652.3159285745</v>
+        <v>426551.1449359865</v>
       </c>
       <c r="P6" t="n">
-        <v>445635.8757587314</v>
+        <v>445534.7047661434</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="3">
@@ -26759,16 +26759,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.630479199900479e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="C4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288068</v>
+        <v>831.8776843078621</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087646</v>
+        <v>58.40725419351541</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165938</v>
+        <v>14.33013548902044</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769594</v>
+        <v>23.72944978769605</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651613</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559192</v>
+        <v>646.8007142757129</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455251</v>
+        <v>129.688382025731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651613</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,7 +27382,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>230.7671489876698</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>160.922041285735</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>43.99219550354654</v>
       </c>
       <c r="H3" t="n">
-        <v>66.17385199706587</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427961</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>81.80783624086484</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713793</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>14.25426355730241</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>97.61862951051499</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>15.34787464025979</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393023</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>68.95077936554387</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>35.40774585269025</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28743,13 +28743,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -29001,10 +29001,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29086,7 +29086,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155848</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29217,19 +29217,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.63600263452912</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668813</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901095</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901016</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>103.2865954513748</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>26.78466270501713</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="P32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.586371353925</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="J34" t="n">
-        <v>109.586371353925</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="M34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="N34" t="n">
-        <v>58.99686212484076</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>13.98970481639779</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265639</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733317</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>130.3599693155844</v>
@@ -30168,19 +30168,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.636002634528836</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155857</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30402,11 +30402,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.01250026485285</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023178</v>
+        <v>36.24905561693101</v>
       </c>
       <c r="K43" t="n">
-        <v>36.24905561693305</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023178</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J46" t="n">
-        <v>36.24905561693305</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023178</v>
+        <v>36.24905561693058</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023178</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
   </sheetData>
@@ -32944,31 +32944,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.55160253154975e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.325449983329611e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2.884926334673998e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.21003641311931e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.261978158273327e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3.080193476047105e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.628873869011544e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.974174793489071e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.148362744929522e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -33026,25 +33026,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1.579474831847826e-13</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>2.123798830720227e-13</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>2.478373062331229e-13</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.543968222661928e-13</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>2.3272339192017e-13</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.867810392725932e-13</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.248581783037703e-13</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -33108,16 +33108,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.219170192852006e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.285444028087754e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.254879042208501e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.159083903538155e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -33181,31 +33181,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.579924156753983e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.367896757886796e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2.937585311912743e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.26862967159608e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.321519516929617e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>3.136416692632088e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.676859083596739e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.010209691249258e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.16932397604321e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -33263,25 +33263,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.608305214176754e-13</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2.162564837651634e-13</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2.523611163945761e-13</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.590403642216023e-13</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>2.369713256198125e-13</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.901903805710067e-13</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.271372326734939e-13</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -33345,19 +33345,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.24142388254381e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.308907423670228e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.277784530687292e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18024082950906e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.009899922548786e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -33418,31 +33418,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.55160253154975e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.325449983329611e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>2.884926334673998e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>3.21003641311931e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.261978158273327e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3.080193476047105e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.628873869011544e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.974174793489071e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.148362744929522e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -33500,25 +33500,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1.579474831847826e-13</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>2.123798830720227e-13</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>2.478373062331229e-13</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.543968222661928e-13</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>2.3272339192017e-13</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.867810392725932e-13</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.248581783037703e-13</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -33582,16 +33582,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.219170192852006e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.285444028087754e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.254879042208501e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.159083903538155e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -33655,31 +33655,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.55160253154975e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.325449983329611e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2.884926334673998e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>3.21003641311931e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3.261978158273327e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3.080193476047105e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.628873869011544e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.974174793489071e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.148362744929522e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -33737,25 +33737,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.579474831847826e-13</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2.123798830720227e-13</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>2.478373062331229e-13</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2.543968222661928e-13</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2.3272339192017e-13</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.867810392725932e-13</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.248581783037703e-13</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -33819,16 +33819,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.219170192852006e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.285444028087754e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.254879042208501e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.159083903538155e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.124623492701656</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>79.83382842401859</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="N3" t="n">
-        <v>9.211344719560405</v>
+        <v>22.58464313947134</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.134231712985</v>
+        <v>14.53827799280387</v>
       </c>
       <c r="N5" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>326.4955165295023</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>48.54898157998584</v>
       </c>
       <c r="M6" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="N6" t="n">
-        <v>523.7908842460764</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.465299698097541</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>22.71185353989332</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36297,10 +36297,10 @@
         <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816469</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.1108817260891</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907908</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425278</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.5073351254083</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
-        <v>627.133985219228</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201031</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.704537506588</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853757</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698328</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062895</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.4505918164783</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576753</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828094</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589875</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120107</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215743</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.1108817260892</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317799</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272214</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.5073351254083</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.133985219228</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201031</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809045</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853758</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698328</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062895</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.4505918164783</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576753</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828094</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589875</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120107</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215743</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.1108817260891</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317799</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.3033249682113</v>
+        <v>601.5899204195857</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510918</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449115</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>471.2691080508037</v>
+        <v>560.5142791723503</v>
       </c>
       <c r="P32" t="n">
-        <v>461.290908860513</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649843</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659181</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062895</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.4505918164783</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553802</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828094</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589875</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120107</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.5118838817659</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407349</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759451</v>
+        <v>281.8153286485839</v>
       </c>
       <c r="M34" t="n">
-        <v>297.759682806717</v>
+        <v>304.2031452793559</v>
       </c>
       <c r="N34" t="n">
-        <v>244.0368964997997</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.348249537079</v>
+        <v>280.3780833636428</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>135.076740954356</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.1108817260891</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317799</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682113</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510918</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449115</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457866</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P35" t="n">
-        <v>351.704537506588</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062895</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.4505918164783</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553799</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828094</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589875</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120107</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023943</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565489</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527921</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749589</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.348249537079</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.46926427500534</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807271</v>
+        <v>6.174568144771941</v>
       </c>
       <c r="K43" t="n">
-        <v>118.910713303743</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081899</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038426</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38108,13 +38108,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144773979</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>221.2890899918894</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081899</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038426</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
